--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.130629666666667</v>
+        <v>1.521407</v>
       </c>
       <c r="H2">
-        <v>6.391889000000001</v>
+        <v>4.564221</v>
       </c>
       <c r="I2">
-        <v>0.1148758300471003</v>
+        <v>0.07220977817024694</v>
       </c>
       <c r="J2">
-        <v>0.1232146053634831</v>
+        <v>0.07583348915219905</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.314766333333333</v>
+        <v>3.721411333333334</v>
       </c>
       <c r="N2">
-        <v>15.944299</v>
+        <v>11.164234</v>
       </c>
       <c r="O2">
-        <v>0.2451567515774308</v>
+        <v>0.1546085275451463</v>
       </c>
       <c r="P2">
-        <v>0.2584722607840235</v>
+        <v>0.1613881693704714</v>
       </c>
       <c r="Q2">
-        <v>11.32379882120122</v>
+        <v>5.661781252412667</v>
       </c>
       <c r="R2">
-        <v>101.914189390811</v>
+        <v>50.956031271714</v>
       </c>
       <c r="S2">
-        <v>0.02816258532910813</v>
+        <v>0.01116424747726353</v>
       </c>
       <c r="T2">
-        <v>0.03184755760991074</v>
+        <v>0.0122386279912489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.130629666666667</v>
+        <v>1.521407</v>
       </c>
       <c r="H3">
-        <v>6.391889000000001</v>
+        <v>4.564221</v>
       </c>
       <c r="I3">
-        <v>0.1148758300471003</v>
+        <v>0.07220977817024694</v>
       </c>
       <c r="J3">
-        <v>0.1232146053634831</v>
+        <v>0.07583348915219905</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.583418</v>
       </c>
       <c r="O3">
-        <v>0.239607908466422</v>
+        <v>0.2158078477305768</v>
       </c>
       <c r="P3">
-        <v>0.252622036327997</v>
+        <v>0.2252711026618443</v>
       </c>
       <c r="Q3">
-        <v>11.06749756628911</v>
+        <v>7.902907076375334</v>
       </c>
       <c r="R3">
-        <v>99.60747809660201</v>
+        <v>71.126163687378</v>
       </c>
       <c r="S3">
-        <v>0.02752515737092986</v>
+        <v>0.01558343681202338</v>
       </c>
       <c r="T3">
-        <v>0.03112672451227363</v>
+        <v>0.01708309372001088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.130629666666667</v>
+        <v>1.521407</v>
       </c>
       <c r="H4">
-        <v>6.391889000000001</v>
+        <v>4.564221</v>
       </c>
       <c r="I4">
-        <v>0.1148758300471003</v>
+        <v>0.07220977817024694</v>
       </c>
       <c r="J4">
-        <v>0.1232146053634831</v>
+        <v>0.07583348915219905</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.528277333333333</v>
+        <v>5.602208666666667</v>
       </c>
       <c r="N4">
-        <v>13.584832</v>
+        <v>16.806626</v>
       </c>
       <c r="O4">
-        <v>0.2088779998321113</v>
+        <v>0.2327475130727259</v>
       </c>
       <c r="P4">
-        <v>0.2202230552381856</v>
+        <v>0.2429535786722285</v>
       </c>
       <c r="Q4">
-        <v>9.648082025294222</v>
+        <v>8.523239480927334</v>
       </c>
       <c r="R4">
-        <v>86.83273822764801</v>
+        <v>76.709155328346</v>
       </c>
       <c r="S4">
-        <v>0.02399503360929186</v>
+        <v>0.01680664628865819</v>
       </c>
       <c r="T4">
-        <v>0.02713469684311357</v>
+        <v>0.01842401757272838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.130629666666667</v>
+        <v>1.521407</v>
       </c>
       <c r="H5">
-        <v>6.391889000000001</v>
+        <v>4.564221</v>
       </c>
       <c r="I5">
-        <v>0.1148758300471003</v>
+        <v>0.07220977817024694</v>
       </c>
       <c r="J5">
-        <v>0.1232146053634831</v>
+        <v>0.07583348915219905</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3504675</v>
+        <v>3.033406</v>
       </c>
       <c r="N5">
-        <v>6.700934999999999</v>
+        <v>6.066812</v>
       </c>
       <c r="O5">
-        <v>0.154548606100354</v>
+        <v>0.1260248849423826</v>
       </c>
       <c r="P5">
-        <v>0.1086285335477458</v>
+        <v>0.08770074889103974</v>
       </c>
       <c r="Q5">
-        <v>7.1386054527025</v>
+        <v>4.615045122242</v>
       </c>
       <c r="R5">
-        <v>42.831632716215</v>
+        <v>27.690270733452</v>
       </c>
       <c r="S5">
-        <v>0.01775389940840051</v>
+        <v>0.009100228985620341</v>
       </c>
       <c r="T5">
-        <v>0.01338462189229939</v>
+        <v>0.006650653789668394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.130629666666667</v>
+        <v>1.521407</v>
       </c>
       <c r="H6">
-        <v>6.391889000000001</v>
+        <v>4.564221</v>
       </c>
       <c r="I6">
-        <v>0.1148758300471003</v>
+        <v>0.07220977817024694</v>
       </c>
       <c r="J6">
-        <v>0.1232146053634831</v>
+        <v>0.07583348915219905</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.291069666666667</v>
+        <v>6.518398333333334</v>
       </c>
       <c r="N6">
-        <v>9.873209000000001</v>
+        <v>19.555195</v>
       </c>
       <c r="O6">
-        <v>0.1518087340236818</v>
+        <v>0.2708112267091685</v>
       </c>
       <c r="P6">
-        <v>0.1600541141020479</v>
+        <v>0.2826864004044161</v>
       </c>
       <c r="Q6">
-        <v>7.01205066686678</v>
+        <v>9.917136853121667</v>
       </c>
       <c r="R6">
-        <v>63.10845600180102</v>
+        <v>89.254231678095</v>
       </c>
       <c r="S6">
-        <v>0.01743915432936992</v>
+        <v>0.01955521860668151</v>
       </c>
       <c r="T6">
-        <v>0.01972100450588573</v>
+        <v>0.02143709607854248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.900467</v>
       </c>
       <c r="I7">
-        <v>0.2677930600350578</v>
+        <v>0.2357377998793408</v>
       </c>
       <c r="J7">
-        <v>0.2872320156273994</v>
+        <v>0.2475678549761722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.314766333333333</v>
+        <v>3.721411333333334</v>
       </c>
       <c r="N7">
-        <v>15.944299</v>
+        <v>11.164234</v>
       </c>
       <c r="O7">
-        <v>0.2451567515774308</v>
+        <v>0.1546085275451463</v>
       </c>
       <c r="P7">
-        <v>0.2584722607840235</v>
+        <v>0.1613881693704714</v>
       </c>
       <c r="Q7">
-        <v>26.39750012084811</v>
+        <v>18.48358892191978</v>
       </c>
       <c r="R7">
-        <v>237.577501087633</v>
+        <v>166.352300297278</v>
       </c>
       <c r="S7">
-        <v>0.06565127669317469</v>
+        <v>0.03644707412607724</v>
       </c>
       <c r="T7">
-        <v>0.07424150844876588</v>
+        <v>0.03995452290957878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.900467</v>
       </c>
       <c r="I8">
-        <v>0.2677930600350578</v>
+        <v>0.2357377998793408</v>
       </c>
       <c r="J8">
-        <v>0.2872320156273994</v>
+        <v>0.2475678549761722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.583418</v>
       </c>
       <c r="O8">
-        <v>0.239607908466422</v>
+        <v>0.2158078477305768</v>
       </c>
       <c r="P8">
-        <v>0.252622036327997</v>
+        <v>0.2252711026618443</v>
       </c>
       <c r="Q8">
         <v>25.80002285068955</v>
@@ -948,10 +948,10 @@
         <v>232.200205656206</v>
       </c>
       <c r="S8">
-        <v>0.0641653350168232</v>
+        <v>0.05087406722070196</v>
       </c>
       <c r="T8">
-        <v>0.07256113668638869</v>
+        <v>0.05576988367410987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.900467</v>
       </c>
       <c r="I9">
-        <v>0.2677930600350578</v>
+        <v>0.2357377998793408</v>
       </c>
       <c r="J9">
-        <v>0.2872320156273994</v>
+        <v>0.2475678549761722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.528277333333333</v>
+        <v>5.602208666666667</v>
       </c>
       <c r="N9">
-        <v>13.584832</v>
+        <v>16.806626</v>
       </c>
       <c r="O9">
-        <v>0.2088779998321113</v>
+        <v>0.2327475130727259</v>
       </c>
       <c r="P9">
-        <v>0.2202230552381856</v>
+        <v>0.2429535786722285</v>
       </c>
       <c r="Q9">
-        <v>22.4911489907271</v>
+        <v>27.82517512159356</v>
       </c>
       <c r="R9">
-        <v>202.420340916544</v>
+        <v>250.426576094342</v>
       </c>
       <c r="S9">
-        <v>0.05593607874904338</v>
+        <v>0.05486738665915253</v>
       </c>
       <c r="T9">
-        <v>0.06325511204368817</v>
+        <v>0.06014749633066831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.900467</v>
       </c>
       <c r="I10">
-        <v>0.2677930600350578</v>
+        <v>0.2357377998793408</v>
       </c>
       <c r="J10">
-        <v>0.2872320156273994</v>
+        <v>0.2475678549761722</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.3504675</v>
+        <v>3.033406</v>
       </c>
       <c r="N10">
-        <v>6.700934999999999</v>
+        <v>6.066812</v>
       </c>
       <c r="O10">
-        <v>0.154548606100354</v>
+        <v>0.1260248849423826</v>
       </c>
       <c r="P10">
-        <v>0.1086285335477458</v>
+        <v>0.08770074889103974</v>
       </c>
       <c r="Q10">
-        <v>16.6411768061075</v>
+        <v>15.06638866686733</v>
       </c>
       <c r="R10">
-        <v>99.84706083664499</v>
+        <v>90.39833200120398</v>
       </c>
       <c r="S10">
-        <v>0.04138704415176659</v>
+        <v>0.02970882910636434</v>
       </c>
       <c r="T10">
-        <v>0.03120159264556761</v>
+        <v>0.02171188628275862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.900467</v>
       </c>
       <c r="I11">
-        <v>0.2677930600350578</v>
+        <v>0.2357377998793408</v>
       </c>
       <c r="J11">
-        <v>0.2872320156273994</v>
+        <v>0.2475678549761722</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.291069666666667</v>
+        <v>6.518398333333334</v>
       </c>
       <c r="N11">
-        <v>9.873209000000001</v>
+        <v>19.555195</v>
       </c>
       <c r="O11">
-        <v>0.1518087340236818</v>
+        <v>0.2708112267091685</v>
       </c>
       <c r="P11">
-        <v>0.1600541141020479</v>
+        <v>0.2826864004044161</v>
       </c>
       <c r="Q11">
-        <v>16.34615832095589</v>
+        <v>32.37572641956278</v>
       </c>
       <c r="R11">
-        <v>147.115424888603</v>
+        <v>291.381537776065</v>
       </c>
       <c r="S11">
-        <v>0.04065332542424993</v>
+        <v>0.06384044276704476</v>
       </c>
       <c r="T11">
-        <v>0.04597266580298899</v>
+        <v>0.06998406577905664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.754271333333334</v>
+        <v>4.707986666666667</v>
       </c>
       <c r="H12">
-        <v>14.262814</v>
+        <v>14.12396</v>
       </c>
       <c r="I12">
-        <v>0.2563330804176046</v>
+        <v>0.2234528123168096</v>
       </c>
       <c r="J12">
-        <v>0.2749401621934863</v>
+        <v>0.2346663685755123</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.314766333333333</v>
+        <v>3.721411333333334</v>
       </c>
       <c r="N12">
-        <v>15.944299</v>
+        <v>11.164234</v>
       </c>
       <c r="O12">
-        <v>0.2451567515774308</v>
+        <v>0.1546085275451463</v>
       </c>
       <c r="P12">
-        <v>0.2584722607840235</v>
+        <v>0.1613881693704714</v>
       </c>
       <c r="Q12">
-        <v>25.26784122193178</v>
+        <v>17.52035493851556</v>
       </c>
       <c r="R12">
-        <v>227.410570997386</v>
+        <v>157.68319444664</v>
       </c>
       <c r="S12">
-        <v>0.0628417853170163</v>
+        <v>0.03454771028812385</v>
       </c>
       <c r="T12">
-        <v>0.07106440530247653</v>
+        <v>0.03787237563721824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.754271333333334</v>
+        <v>4.707986666666667</v>
       </c>
       <c r="H13">
-        <v>14.262814</v>
+        <v>14.12396</v>
       </c>
       <c r="I13">
-        <v>0.2563330804176046</v>
+        <v>0.2234528123168096</v>
       </c>
       <c r="J13">
-        <v>0.2749401621934863</v>
+        <v>0.2346663685755123</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.583418</v>
       </c>
       <c r="O13">
-        <v>0.239607908466422</v>
+        <v>0.2158078477305768</v>
       </c>
       <c r="P13">
-        <v>0.252622036327997</v>
+        <v>0.2252711026618443</v>
       </c>
       <c r="Q13">
-        <v>24.69593249091689</v>
+        <v>24.45550805503111</v>
       </c>
       <c r="R13">
-        <v>222.263392418252</v>
+        <v>220.09957249528</v>
       </c>
       <c r="S13">
-        <v>0.06141943326961741</v>
+        <v>0.04822287049543519</v>
       </c>
       <c r="T13">
-        <v>0.06945594364166829</v>
+        <v>0.05286355160665641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.754271333333334</v>
+        <v>4.707986666666667</v>
       </c>
       <c r="H14">
-        <v>14.262814</v>
+        <v>14.12396</v>
       </c>
       <c r="I14">
-        <v>0.2563330804176046</v>
+        <v>0.2234528123168096</v>
       </c>
       <c r="J14">
-        <v>0.2749401621934863</v>
+        <v>0.2346663685755123</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.528277333333333</v>
+        <v>5.602208666666667</v>
       </c>
       <c r="N14">
-        <v>13.584832</v>
+        <v>16.806626</v>
       </c>
       <c r="O14">
-        <v>0.2088779998321113</v>
+        <v>0.2327475130727259</v>
       </c>
       <c r="P14">
-        <v>0.2202230552381856</v>
+        <v>0.2429535786722285</v>
       </c>
       <c r="Q14">
-        <v>21.52865911524977</v>
+        <v>26.37512370655111</v>
       </c>
       <c r="R14">
-        <v>193.757932037248</v>
+        <v>237.37611335896</v>
       </c>
       <c r="S14">
-        <v>0.05354234112843299</v>
+        <v>0.05200808635584401</v>
       </c>
       <c r="T14">
-        <v>0.06054816252593185</v>
+        <v>0.0570130340394369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.754271333333334</v>
+        <v>4.707986666666667</v>
       </c>
       <c r="H15">
-        <v>14.262814</v>
+        <v>14.12396</v>
       </c>
       <c r="I15">
-        <v>0.2563330804176046</v>
+        <v>0.2234528123168096</v>
       </c>
       <c r="J15">
-        <v>0.2749401621934863</v>
+        <v>0.2346663685755123</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.3504675</v>
+        <v>3.033406</v>
       </c>
       <c r="N15">
-        <v>6.700934999999999</v>
+        <v>6.066812</v>
       </c>
       <c r="O15">
-        <v>0.154548606100354</v>
+        <v>0.1260248849423826</v>
       </c>
       <c r="P15">
-        <v>0.1086285335477458</v>
+        <v>0.08770074889103974</v>
       </c>
       <c r="Q15">
-        <v>15.929031588515</v>
+        <v>14.28123500258667</v>
       </c>
       <c r="R15">
-        <v>95.57418953109</v>
+        <v>85.68741001552</v>
       </c>
       <c r="S15">
-        <v>0.03961592027595073</v>
+        <v>0.02816061496227774</v>
       </c>
       <c r="T15">
-        <v>0.02986634663245781</v>
+        <v>0.02058041626361318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.754271333333334</v>
+        <v>4.707986666666667</v>
       </c>
       <c r="H16">
-        <v>14.262814</v>
+        <v>14.12396</v>
       </c>
       <c r="I16">
-        <v>0.2563330804176046</v>
+        <v>0.2234528123168096</v>
       </c>
       <c r="J16">
-        <v>0.2749401621934863</v>
+        <v>0.2346663685755123</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.291069666666667</v>
+        <v>6.518398333333334</v>
       </c>
       <c r="N16">
-        <v>9.873209000000001</v>
+        <v>19.555195</v>
       </c>
       <c r="O16">
-        <v>0.1518087340236818</v>
+        <v>0.2708112267091685</v>
       </c>
       <c r="P16">
-        <v>0.1600541141020479</v>
+        <v>0.2826864004044161</v>
       </c>
       <c r="Q16">
-        <v>15.64663817223622</v>
+        <v>30.68853244135556</v>
       </c>
       <c r="R16">
-        <v>140.819743550126</v>
+        <v>276.1967919722</v>
       </c>
       <c r="S16">
-        <v>0.03891360042658716</v>
+        <v>0.06051353021512879</v>
       </c>
       <c r="T16">
-        <v>0.04400530409095182</v>
+        <v>0.06633699102858755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.765656</v>
+        <v>3.020391</v>
       </c>
       <c r="H17">
-        <v>7.531312</v>
+        <v>6.040782</v>
       </c>
       <c r="I17">
-        <v>0.2030305244686712</v>
+        <v>0.1433553047260926</v>
       </c>
       <c r="J17">
-        <v>0.1451789347326376</v>
+        <v>0.100366212825321</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.314766333333333</v>
+        <v>3.721411333333334</v>
       </c>
       <c r="N17">
-        <v>15.944299</v>
+        <v>11.164234</v>
       </c>
       <c r="O17">
-        <v>0.2451567515774308</v>
+        <v>0.1546085275451463</v>
       </c>
       <c r="P17">
-        <v>0.2584722607840235</v>
+        <v>0.1613881693704714</v>
       </c>
       <c r="Q17">
-        <v>20.01358173171467</v>
+        <v>11.240117298498</v>
       </c>
       <c r="R17">
-        <v>120.081490390288</v>
+        <v>67.44070379098801</v>
       </c>
       <c r="S17">
-        <v>0.04977430384980151</v>
+        <v>0.02216395257948692</v>
       </c>
       <c r="T17">
-        <v>0.03752472747856104</v>
+        <v>0.01619791935452567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.765656</v>
+        <v>3.020391</v>
       </c>
       <c r="H18">
-        <v>7.531312</v>
+        <v>6.040782</v>
       </c>
       <c r="I18">
-        <v>0.2030305244686712</v>
+        <v>0.1433553047260926</v>
       </c>
       <c r="J18">
-        <v>0.1451789347326376</v>
+        <v>0.100366212825321</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>15.583418</v>
       </c>
       <c r="O18">
-        <v>0.239607908466422</v>
+        <v>0.2158078477305768</v>
       </c>
       <c r="P18">
-        <v>0.252622036327997</v>
+        <v>0.2252711026618443</v>
       </c>
       <c r="Q18">
-        <v>19.56059716406934</v>
+        <v>15.689338492146</v>
       </c>
       <c r="R18">
-        <v>117.363582984416</v>
+        <v>94.136030952876</v>
       </c>
       <c r="S18">
-        <v>0.04864771932277902</v>
+        <v>0.03093719977369902</v>
       </c>
       <c r="T18">
-        <v>0.03667539812408829</v>
+        <v>0.02260960743315339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.765656</v>
+        <v>3.020391</v>
       </c>
       <c r="H19">
-        <v>7.531312</v>
+        <v>6.040782</v>
       </c>
       <c r="I19">
-        <v>0.2030305244686712</v>
+        <v>0.1433553047260926</v>
       </c>
       <c r="J19">
-        <v>0.1451789347326376</v>
+        <v>0.100366212825321</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.528277333333333</v>
+        <v>5.602208666666667</v>
       </c>
       <c r="N19">
-        <v>13.584832</v>
+        <v>16.806626</v>
       </c>
       <c r="O19">
-        <v>0.2088779998321113</v>
+        <v>0.2327475130727259</v>
       </c>
       <c r="P19">
-        <v>0.2202230552381856</v>
+        <v>0.2429535786722285</v>
       </c>
       <c r="Q19">
-        <v>17.05193470993066</v>
+        <v>16.920860636922</v>
       </c>
       <c r="R19">
-        <v>102.311608259584</v>
+        <v>101.525163821532</v>
       </c>
       <c r="S19">
-        <v>0.04240860985588057</v>
+        <v>0.03336559066078084</v>
       </c>
       <c r="T19">
-        <v>0.0319717485630466</v>
+        <v>0.02438433058369024</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.765656</v>
+        <v>3.020391</v>
       </c>
       <c r="H20">
-        <v>7.531312</v>
+        <v>6.040782</v>
       </c>
       <c r="I20">
-        <v>0.2030305244686712</v>
+        <v>0.1433553047260926</v>
       </c>
       <c r="J20">
-        <v>0.1451789347326376</v>
+        <v>0.100366212825321</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.3504675</v>
+        <v>3.033406</v>
       </c>
       <c r="N20">
-        <v>6.700934999999999</v>
+        <v>6.066812</v>
       </c>
       <c r="O20">
-        <v>0.154548606100354</v>
+        <v>0.1260248849423826</v>
       </c>
       <c r="P20">
-        <v>0.1086285335477458</v>
+        <v>0.08770074889103974</v>
       </c>
       <c r="Q20">
-        <v>12.61670804418</v>
+        <v>9.162072181746</v>
       </c>
       <c r="R20">
-        <v>50.46683217672</v>
+        <v>36.648288726984</v>
       </c>
       <c r="S20">
-        <v>0.03137808455245693</v>
+        <v>0.01806633578398601</v>
       </c>
       <c r="T20">
-        <v>0.01577057478203033</v>
+        <v>0.008802192028138126</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.765656</v>
+        <v>3.020391</v>
       </c>
       <c r="H21">
-        <v>7.531312</v>
+        <v>6.040782</v>
       </c>
       <c r="I21">
-        <v>0.2030305244686712</v>
+        <v>0.1433553047260926</v>
       </c>
       <c r="J21">
-        <v>0.1451789347326376</v>
+        <v>0.100366212825321</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.291069666666667</v>
+        <v>6.518398333333334</v>
       </c>
       <c r="N21">
-        <v>9.873209000000001</v>
+        <v>19.555195</v>
       </c>
       <c r="O21">
-        <v>0.1518087340236818</v>
+        <v>0.2708112267091685</v>
       </c>
       <c r="P21">
-        <v>0.1600541141020479</v>
+        <v>0.2826864004044161</v>
       </c>
       <c r="Q21">
-        <v>12.39303623670133</v>
+        <v>19.688111660415</v>
       </c>
       <c r="R21">
-        <v>74.35821742020801</v>
+        <v>118.12866996249</v>
       </c>
       <c r="S21">
-        <v>0.03082180688775311</v>
+        <v>0.03882222592813978</v>
       </c>
       <c r="T21">
-        <v>0.02323648578491135</v>
+        <v>0.02837216342581352</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.929861333333333</v>
+        <v>6.852658666666668</v>
       </c>
       <c r="H22">
-        <v>8.789584</v>
+        <v>20.557976</v>
       </c>
       <c r="I22">
-        <v>0.1579675050315661</v>
+        <v>0.3252443049075101</v>
       </c>
       <c r="J22">
-        <v>0.1694342820829937</v>
+        <v>0.3415660744707955</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.314766333333333</v>
+        <v>3.721411333333334</v>
       </c>
       <c r="N22">
-        <v>15.944299</v>
+        <v>11.164234</v>
       </c>
       <c r="O22">
-        <v>0.2451567515774308</v>
+        <v>0.1546085275451463</v>
       </c>
       <c r="P22">
-        <v>0.2584722607840235</v>
+        <v>0.1613881693704714</v>
       </c>
       <c r="Q22">
-        <v>15.57152837573511</v>
+        <v>25.50156162559823</v>
       </c>
       <c r="R22">
-        <v>140.143755381616</v>
+        <v>229.514054630384</v>
       </c>
       <c r="S22">
-        <v>0.03872680038833019</v>
+        <v>0.05028554307419472</v>
       </c>
       <c r="T22">
-        <v>0.04379406194430936</v>
+        <v>0.05512472347789978</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.929861333333333</v>
+        <v>6.852658666666668</v>
       </c>
       <c r="H23">
-        <v>8.789584</v>
+        <v>20.557976</v>
       </c>
       <c r="I23">
-        <v>0.1579675050315661</v>
+        <v>0.3252443049075101</v>
       </c>
       <c r="J23">
-        <v>0.1694342820829937</v>
+        <v>0.3415660744707955</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>15.583418</v>
       </c>
       <c r="O23">
-        <v>0.239607908466422</v>
+        <v>0.2158078477305768</v>
       </c>
       <c r="P23">
-        <v>0.252622036327997</v>
+        <v>0.2252711026618443</v>
       </c>
       <c r="Q23">
-        <v>15.21908461312356</v>
+        <v>35.59594813799645</v>
       </c>
       <c r="R23">
-        <v>136.971761518112</v>
+        <v>320.3635332419681</v>
       </c>
       <c r="S23">
-        <v>0.03785026348627255</v>
+        <v>0.07019027342871723</v>
       </c>
       <c r="T23">
-        <v>0.04280283336357814</v>
+        <v>0.07694496622791371</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.929861333333333</v>
+        <v>6.852658666666668</v>
       </c>
       <c r="H24">
-        <v>8.789584</v>
+        <v>20.557976</v>
       </c>
       <c r="I24">
-        <v>0.1579675050315661</v>
+        <v>0.3252443049075101</v>
       </c>
       <c r="J24">
-        <v>0.1694342820829937</v>
+        <v>0.3415660744707955</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.528277333333333</v>
+        <v>5.602208666666667</v>
       </c>
       <c r="N24">
-        <v>13.584832</v>
+        <v>16.806626</v>
       </c>
       <c r="O24">
-        <v>0.2088779998321113</v>
+        <v>0.2327475130727259</v>
       </c>
       <c r="P24">
-        <v>0.2202230552381856</v>
+        <v>0.2429535786722285</v>
       </c>
       <c r="Q24">
-        <v>13.26722466554311</v>
+        <v>38.39002377210845</v>
       </c>
       <c r="R24">
-        <v>119.405021989888</v>
+        <v>345.5102139489761</v>
       </c>
       <c r="S24">
-        <v>0.03299593648946249</v>
+        <v>0.07569980310829036</v>
       </c>
       <c r="T24">
-        <v>0.03731333526240545</v>
+        <v>0.08298470014570467</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.929861333333333</v>
+        <v>6.852658666666668</v>
       </c>
       <c r="H25">
-        <v>8.789584</v>
+        <v>20.557976</v>
       </c>
       <c r="I25">
-        <v>0.1579675050315661</v>
+        <v>0.3252443049075101</v>
       </c>
       <c r="J25">
-        <v>0.1694342820829937</v>
+        <v>0.3415660744707955</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.3504675</v>
+        <v>3.033406</v>
       </c>
       <c r="N25">
-        <v>6.700934999999999</v>
+        <v>6.066812</v>
       </c>
       <c r="O25">
-        <v>0.154548606100354</v>
+        <v>0.1260248849423826</v>
       </c>
       <c r="P25">
-        <v>0.1086285335477458</v>
+        <v>0.08770074889103974</v>
       </c>
       <c r="Q25">
-        <v>9.816405176839998</v>
+        <v>20.78689591541867</v>
       </c>
       <c r="R25">
-        <v>58.89843106103999</v>
+        <v>124.721375492512</v>
       </c>
       <c r="S25">
-        <v>0.02441365771177919</v>
+        <v>0.04098887610413416</v>
       </c>
       <c r="T25">
-        <v>0.01840539759539072</v>
+        <v>0.02995560052686141</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.929861333333333</v>
+        <v>6.852658666666668</v>
       </c>
       <c r="H26">
-        <v>8.789584</v>
+        <v>20.557976</v>
       </c>
       <c r="I26">
-        <v>0.1579675050315661</v>
+        <v>0.3252443049075101</v>
       </c>
       <c r="J26">
-        <v>0.1694342820829937</v>
+        <v>0.3415660744707955</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.291069666666667</v>
+        <v>6.518398333333334</v>
       </c>
       <c r="N26">
-        <v>9.873209000000001</v>
+        <v>19.555195</v>
       </c>
       <c r="O26">
-        <v>0.1518087340236818</v>
+        <v>0.2708112267091685</v>
       </c>
       <c r="P26">
-        <v>0.1600541141020479</v>
+        <v>0.2826864004044161</v>
       </c>
       <c r="Q26">
-        <v>9.64237776167289</v>
+        <v>44.66835883170223</v>
       </c>
       <c r="R26">
-        <v>86.78139985505601</v>
+        <v>402.0152294853201</v>
       </c>
       <c r="S26">
-        <v>0.02398084695572162</v>
+        <v>0.08807980919217363</v>
       </c>
       <c r="T26">
-        <v>0.02711865391731005</v>
+        <v>0.09655608409241588</v>
       </c>
     </row>
   </sheetData>
